--- a/PLANILHA ACERTOS NAYARA.xlsx
+++ b/PLANILHA ACERTOS NAYARA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Desktop\CH NAYARA 3 IRMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF35ADB-DE95-44DE-81AD-AF3794E41B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDE394-B63E-4BD5-A3A5-B7A819105B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="660" windowWidth="15375" windowHeight="7875" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="60">
   <si>
     <t>PARC</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>5de 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 DE 1 </t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINHEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
   </si>
 </sst>
 </file>
@@ -476,427 +491,6 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -927,30 +521,6 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -981,30 +551,6 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1035,30 +581,6 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1089,30 +611,6 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1137,30 +635,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
@@ -1192,31 +666,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
@@ -1248,311 +697,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1843,58 +987,35 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+      <border outline="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1959,6 +1080,456 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2243,35 +1814,58 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="medium">
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3059,6 +2653,427 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -3468,119 +3483,119 @@
     <tableColumn id="5" xr3:uid="{8CFCDB73-0B43-45D5-851C-AA5AB150EE72}" name="NAYARA " dataDxfId="82" dataCellStyle="Moeda"/>
     <tableColumn id="7" xr3:uid="{5A9B7C68-1610-4E91-9672-A3B62B982FBD}" name="FORMA " dataDxfId="81" dataCellStyle="Moeda"/>
     <tableColumn id="6" xr3:uid="{F5AA1011-9B4A-4B62-99CA-E7F6C33DF3F0}" name="PAGO?" dataDxfId="80" dataCellStyle="Moeda"/>
-    <tableColumn id="8" xr3:uid="{1CF8AA0D-8BF3-4D57-80AA-A4AF63B1B9F0}" name="Coluna1" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="8" xr3:uid="{1CF8AA0D-8BF3-4D57-80AA-A4AF63B1B9F0}" name="Coluna1" dataDxfId="79" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED4AF6C6-C442-4746-BDC2-9C7AE67316DA}" name="Tabela23" displayName="Tabela23" ref="I3:O12" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED4AF6C6-C442-4746-BDC2-9C7AE67316DA}" name="Tabela23" displayName="Tabela23" ref="I3:O12" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="I3:O12" xr:uid="{ED4AF6C6-C442-4746-BDC2-9C7AE67316DA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C2C98477-D086-4998-9520-4709B3F5AC93}" name="PARC" dataDxfId="76" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{078A3B2C-C059-4EC7-91DC-5D78E4B609B0}" name="DATA" dataDxfId="75" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{B994DD8A-842E-46FA-966D-1A54E113BFEF}" name="NOME " dataDxfId="74" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{49797BBF-4668-45EB-B9FB-B8D3DF3B8382}" name="VALOR " dataDxfId="73" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{B9536DA5-8958-43AE-9349-CA01369C3F95}" name="NAYARA " dataDxfId="72" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{C6D9112B-9C58-46AC-9C59-8E1B84845A2E}" name="FORMA " dataDxfId="71" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{1B7D0766-FB0C-447D-A203-896FFC6E4E1C}" name="PAGO?" dataDxfId="70" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C2C98477-D086-4998-9520-4709B3F5AC93}" name="PARC" dataDxfId="75" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{078A3B2C-C059-4EC7-91DC-5D78E4B609B0}" name="DATA" dataDxfId="74" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{B994DD8A-842E-46FA-966D-1A54E113BFEF}" name="NOME " dataDxfId="73" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{49797BBF-4668-45EB-B9FB-B8D3DF3B8382}" name="VALOR " dataDxfId="72" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{B9536DA5-8958-43AE-9349-CA01369C3F95}" name="NAYARA " dataDxfId="71" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{C6D9112B-9C58-46AC-9C59-8E1B84845A2E}" name="FORMA " dataDxfId="70" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{1B7D0766-FB0C-447D-A203-896FFC6E4E1C}" name="PAGO?" dataDxfId="69" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D48D319-1899-446A-8317-90D2DBBA8C73}" name="Tabela25" displayName="Tabela25" ref="A17:G26" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D48D319-1899-446A-8317-90D2DBBA8C73}" name="Tabela25" displayName="Tabela25" ref="A17:G26" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="A17:G26" xr:uid="{8D48D319-1899-446A-8317-90D2DBBA8C73}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6F45DCBF-EABC-407D-B5D0-36824678D890}" name="PARC" dataDxfId="66" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{2FB8CDC4-14DF-4C74-A68E-7447F4F1173B}" name="DATA" dataDxfId="65" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{E0C2179F-ABFF-41AD-82E2-B9FA1E116673}" name="NOME " dataDxfId="64" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{FF6B22C7-CDDE-47F2-A692-307C5C21E082}" name="VALOR " dataDxfId="63" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{83DC7E0A-1D8E-44EE-9A58-1769D620B560}" name="NAYARA " dataDxfId="62" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{BD61D535-DA03-4886-BF85-4BDCD21ADA8E}" name="FORMA " dataDxfId="61" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{82C328FE-EFA1-4A34-A681-86CF36E4713C}" name="PAGO?" dataDxfId="60" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{6F45DCBF-EABC-407D-B5D0-36824678D890}" name="PARC" dataDxfId="65" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{2FB8CDC4-14DF-4C74-A68E-7447F4F1173B}" name="DATA" dataDxfId="64" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{E0C2179F-ABFF-41AD-82E2-B9FA1E116673}" name="NOME " dataDxfId="63" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{FF6B22C7-CDDE-47F2-A692-307C5C21E082}" name="VALOR " dataDxfId="62" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{83DC7E0A-1D8E-44EE-9A58-1769D620B560}" name="NAYARA " dataDxfId="61" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{BD61D535-DA03-4886-BF85-4BDCD21ADA8E}" name="FORMA " dataDxfId="60" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{82C328FE-EFA1-4A34-A681-86CF36E4713C}" name="PAGO?" dataDxfId="59" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{297F9E4D-7D90-470D-ABEC-715AEBBD1BEB}" name="Tabela26" displayName="Tabela26" ref="I17:O26" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{297F9E4D-7D90-470D-ABEC-715AEBBD1BEB}" name="Tabela26" displayName="Tabela26" ref="I17:O26" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="I17:O26" xr:uid="{297F9E4D-7D90-470D-ABEC-715AEBBD1BEB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C5CC33BE-F024-4ED9-8B41-DBA05A2731D3}" name="PARC" dataDxfId="56" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{6AB0D87A-0FC2-42D8-907B-2EEAD88ED7A0}" name="DATA" dataDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{64F8811A-3466-43D4-AA93-CF454CF8B24B}" name="NOME " dataDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{1447156C-20C6-414B-A766-90241BCA0051}" name="VALOR " dataDxfId="53" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{4296293C-23A7-496B-A926-334580DA84F7}" name="NAYARA " dataDxfId="52" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{80FA261D-6EF6-4FB3-8102-12DA53DC37F9}" name="FORMA " dataDxfId="51" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{C0F6A65F-6301-4621-9932-487519FA8B98}" name="PAGO?" dataDxfId="50" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C5CC33BE-F024-4ED9-8B41-DBA05A2731D3}" name="PARC" dataDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{6AB0D87A-0FC2-42D8-907B-2EEAD88ED7A0}" name="DATA" dataDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{64F8811A-3466-43D4-AA93-CF454CF8B24B}" name="NOME " dataDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{1447156C-20C6-414B-A766-90241BCA0051}" name="VALOR " dataDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{4296293C-23A7-496B-A926-334580DA84F7}" name="NAYARA " dataDxfId="51" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{80FA261D-6EF6-4FB3-8102-12DA53DC37F9}" name="FORMA " dataDxfId="50" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{C0F6A65F-6301-4621-9932-487519FA8B98}" name="PAGO?" dataDxfId="49" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{816A6719-6FD7-4121-9F87-EE6BFF5BCDFD}" name="Tabela27" displayName="Tabela27" ref="Q17:W26" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{816A6719-6FD7-4121-9F87-EE6BFF5BCDFD}" name="Tabela27" displayName="Tabela27" ref="Q17:W26" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="Q17:W26" xr:uid="{816A6719-6FD7-4121-9F87-EE6BFF5BCDFD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CA1083F5-BF74-408F-9F41-1A6313EC4299}" name="PARC" dataDxfId="44" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{071BAE8E-558C-4960-977D-998EDB207371}" name="DATA" dataDxfId="43" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{8F7E4C1B-9493-47AD-BCAD-7E2011E52B4E}" name="NOME " dataDxfId="42" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{9F36663B-A418-44CD-8B0F-EC86F21C36DA}" name="VALOR " dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{D163662D-CD5E-4178-8C29-C665E5D72F5F}" name="NAYARA " dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{52AFB141-8CB5-49A9-9FA8-DE5DBECD5E6D}" name="FORMA " dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{3BEC66AD-0B04-4A57-A3EB-044480248771}" name="PAGO?" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{CA1083F5-BF74-408F-9F41-1A6313EC4299}" name="PARC" dataDxfId="43" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{071BAE8E-558C-4960-977D-998EDB207371}" name="DATA" dataDxfId="42" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{8F7E4C1B-9493-47AD-BCAD-7E2011E52B4E}" name="NOME " dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{9F36663B-A418-44CD-8B0F-EC86F21C36DA}" name="VALOR " dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{D163662D-CD5E-4178-8C29-C665E5D72F5F}" name="NAYARA " dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{52AFB141-8CB5-49A9-9FA8-DE5DBECD5E6D}" name="FORMA " dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{3BEC66AD-0B04-4A57-A3EB-044480248771}" name="PAGO?" dataDxfId="37" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{65AFD7EA-21F3-499F-B4F9-3BB51616B10B}" name="Tabela28" displayName="Tabela28" ref="A33:G42" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{65AFD7EA-21F3-499F-B4F9-3BB51616B10B}" name="Tabela28" displayName="Tabela28" ref="A33:G42" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="A33:G42" xr:uid="{65AFD7EA-21F3-499F-B4F9-3BB51616B10B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8AB4DC6E-1156-4DFE-8A94-D3697AF94EE7}" name="PARC" dataDxfId="34" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{0A79EE75-4C93-49FD-8D89-27A74735336A}" name="DATA" dataDxfId="33" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{4FFAF810-6E02-46D8-A418-4A827DAF493E}" name="NOME " dataDxfId="32" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{883C5062-A8AD-4E7F-A468-287C3F09A3AD}" name="VALOR " dataDxfId="31" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{AD754B18-4097-477C-BD98-707F9E91A2FB}" name="NAYARA " dataDxfId="30" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2844DEF-9F20-4D21-9B06-B77AB697B4B6}" name="FORMA " dataDxfId="29" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{11CFAC4E-5EF9-44D0-BD21-418023C7C7FE}" name="PAGO?" dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{8AB4DC6E-1156-4DFE-8A94-D3697AF94EE7}" name="PARC" dataDxfId="33" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{0A79EE75-4C93-49FD-8D89-27A74735336A}" name="DATA" dataDxfId="32" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{4FFAF810-6E02-46D8-A418-4A827DAF493E}" name="NOME " dataDxfId="31" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{883C5062-A8AD-4E7F-A468-287C3F09A3AD}" name="VALOR " dataDxfId="30" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{AD754B18-4097-477C-BD98-707F9E91A2FB}" name="NAYARA " dataDxfId="29" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2844DEF-9F20-4D21-9B06-B77AB697B4B6}" name="FORMA " dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{11CFAC4E-5EF9-44D0-BD21-418023C7C7FE}" name="PAGO?" dataDxfId="27" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}" name="Tabela29" displayName="Tabela29" ref="I33:O43" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}" name="Tabela29" displayName="Tabela29" ref="I33:O43" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="I33:O42" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{24BE90B8-A0C7-4D06-B030-443EAB01750A}" name="PARC" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{7DE4DFAA-2A64-4E80-A68C-6C2FA872E889}" name="DATA" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{00B0D0E7-F603-4A34-BD75-4ABE2649DB9E}" name="NOME " dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{75DE058D-6BE1-4F0C-9F7F-C4F4805B4A2F}" name="VALOR " totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{755F76A5-5399-4689-A616-AE24DE23EEAF}" name="NAYARA " totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{45C3D6E0-3BC2-4E3B-B7B5-F0D9222758FA}" name="FORMA " dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{CFACDFFF-5CD2-42E1-948C-EDA79C5E556C}" name="PAGO?" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{24BE90B8-A0C7-4D06-B030-443EAB01750A}" name="PARC" dataDxfId="23" totalsRowDxfId="6" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{7DE4DFAA-2A64-4E80-A68C-6C2FA872E889}" name="DATA" dataDxfId="22" totalsRowDxfId="5" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{00B0D0E7-F603-4A34-BD75-4ABE2649DB9E}" name="NOME " dataDxfId="21" totalsRowDxfId="4" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{75DE058D-6BE1-4F0C-9F7F-C4F4805B4A2F}" name="VALOR " totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{755F76A5-5399-4689-A616-AE24DE23EEAF}" name="NAYARA " totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{45C3D6E0-3BC2-4E3B-B7B5-F0D9222758FA}" name="FORMA " dataDxfId="18" totalsRowDxfId="1" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{CFACDFFF-5CD2-42E1-948C-EDA79C5E556C}" name="PAGO?" dataDxfId="17" totalsRowDxfId="0" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{22EB66EF-3C85-44C8-93A0-795C77010390}" name="Tabela2310" displayName="Tabela2310" ref="Q3:W12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{22EB66EF-3C85-44C8-93A0-795C77010390}" name="Tabela2310" displayName="Tabela2310" ref="Q3:W12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="Q3:W12" xr:uid="{22EB66EF-3C85-44C8-93A0-795C77010390}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{70836923-60FC-4D6F-99C5-AE46EA53C116}" name="PARC" dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{464EA8FD-2312-4D67-BECD-051208EC7A1A}" name="DATA" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{5DBE8ECE-C8A9-45F4-BD67-FFAE940C2107}" name="NOME " dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{FC1EBF8C-0A01-41F6-8D68-5A55FE7B0F3F}" name="VALOR " dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{C4676335-54EC-4E7C-BDA5-AB202F7495D7}" name="NAYARA " dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{5274F487-D426-4F20-B683-17C929B49BA6}" name="FORMA " dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{8C619FC1-D99F-41EE-9A77-E6D7547BB9A6}" name="PAGO?" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{70836923-60FC-4D6F-99C5-AE46EA53C116}" name="PARC" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{464EA8FD-2312-4D67-BECD-051208EC7A1A}" name="DATA" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{5DBE8ECE-C8A9-45F4-BD67-FFAE940C2107}" name="NOME " dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{FC1EBF8C-0A01-41F6-8D68-5A55FE7B0F3F}" name="VALOR " dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{C4676335-54EC-4E7C-BDA5-AB202F7495D7}" name="NAYARA " dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{5274F487-D426-4F20-B683-17C929B49BA6}" name="FORMA " dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{8C619FC1-D99F-41EE-9A77-E6D7547BB9A6}" name="PAGO?" dataDxfId="7" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3885,8 +3900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A392D32-D411-41D8-BD53-0BBF70658B08}">
   <dimension ref="A2:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4140,7 +4155,7 @@
         <v>200</v>
       </c>
       <c r="E6" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>9</v>
@@ -4162,7 +4177,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N6" s="20" t="s">
         <v>9</v>
@@ -4181,7 +4196,7 @@
         <v>200</v>
       </c>
       <c r="U6" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="V6" s="20" t="s">
         <v>9</v>
@@ -4264,7 +4279,7 @@
         <v>1674.5</v>
       </c>
       <c r="E8" s="20">
-        <v>334.9</v>
+        <v>502.35</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>21</v>
@@ -4286,7 +4301,7 @@
         <v>1674.5</v>
       </c>
       <c r="M8" s="20">
-        <v>334.9</v>
+        <v>502.35</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>21</v>
@@ -4326,7 +4341,7 @@
         <v>256.27</v>
       </c>
       <c r="E9" s="20">
-        <v>51.25</v>
+        <v>54</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>15</v>
@@ -4363,13 +4378,27 @@
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="19">
+        <v>45077</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="20">
+        <v>900</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="5" t="s">
         <v>51</v>
@@ -4399,11 +4428,21 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="19">
+        <v>45077</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="20">
+        <v>965</v>
+      </c>
+      <c r="E11" s="20">
+        <v>193</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -4440,7 +4479,7 @@
       </c>
       <c r="M12" s="23">
         <f>SUBTOTAL(109,M4:M11)</f>
-        <v>659.9</v>
+        <v>847.35</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -4453,7 +4492,7 @@
       </c>
       <c r="U12" s="23">
         <f>SUBTOTAL(109,U4:U11)</f>
-        <v>236.6</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="V12" s="23"/>
       <c r="W12" s="20"/>
@@ -4464,11 +4503,11 @@
       <c r="C13" s="20"/>
       <c r="D13" s="23">
         <f>SUBTOTAL(109,D4:D12)</f>
-        <v>2957.43</v>
+        <v>6922.43</v>
       </c>
       <c r="E13" s="23">
         <f>SUBTOTAL(109,E4:E12)</f>
-        <v>591.5</v>
+        <v>1874.7</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -4658,7 +4697,7 @@
         <v>200</v>
       </c>
       <c r="E19" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>9</v>
@@ -4677,7 +4716,7 @@
         <v>200</v>
       </c>
       <c r="M19" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>9</v>
@@ -4696,7 +4735,7 @@
         <v>200</v>
       </c>
       <c r="U19" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="V19" s="20" t="s">
         <v>9</v>
@@ -4911,7 +4950,7 @@
       </c>
       <c r="E26" s="23">
         <f>SUBTOTAL(109,E18:E25)</f>
-        <v>202.45</v>
+        <v>222.45</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -4924,7 +4963,7 @@
       </c>
       <c r="M26" s="23">
         <f>SUBTOTAL(109,M18:M25)</f>
-        <v>203.85</v>
+        <v>223.85</v>
       </c>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -4937,7 +4976,7 @@
       </c>
       <c r="U26" s="34">
         <f>SUBTOTAL(109,U18:U25)</f>
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="V26" s="34"/>
       <c r="W26" s="35"/>
@@ -5089,7 +5128,7 @@
         <v>200</v>
       </c>
       <c r="E35" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>9</v>
@@ -5108,7 +5147,7 @@
         <v>200</v>
       </c>
       <c r="M35" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>9</v>
@@ -5294,7 +5333,7 @@
       </c>
       <c r="E42" s="13">
         <f>SUBTOTAL(109,E34:E41)</f>
-        <v>155.6</v>
+        <v>175.6</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -5330,7 +5369,7 @@
       </c>
       <c r="M43" s="7">
         <f>SUBTOTAL(109,Tabela29[[NAYARA ]])</f>
-        <v>117.2</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>

--- a/PLANILHA ACERTOS NAYARA.xlsx
+++ b/PLANILHA ACERTOS NAYARA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Desktop\CH NAYARA 3 IRMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDE394-B63E-4BD5-A3A5-B7A819105B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F2EFC-6706-4130-B2EE-E1C4B5D59BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>PARC</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>1de 5</t>
   </si>
 </sst>
 </file>
@@ -491,6 +494,383 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -521,6 +901,30 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -551,6 +955,30 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -581,6 +1009,30 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -611,6 +1063,30 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -635,6 +1111,30 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
@@ -666,6 +1166,31 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
@@ -679,528 +1204,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3573,29 +3576,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}" name="Tabela29" displayName="Tabela29" ref="I33:O43" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="I33:O42" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{24BE90B8-A0C7-4D06-B030-443EAB01750A}" name="PARC" dataDxfId="23" totalsRowDxfId="6" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{7DE4DFAA-2A64-4E80-A68C-6C2FA872E889}" name="DATA" dataDxfId="22" totalsRowDxfId="5" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{00B0D0E7-F603-4A34-BD75-4ABE2649DB9E}" name="NOME " dataDxfId="21" totalsRowDxfId="4" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{75DE058D-6BE1-4F0C-9F7F-C4F4805B4A2F}" name="VALOR " totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="3" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{755F76A5-5399-4689-A616-AE24DE23EEAF}" name="NAYARA " totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{45C3D6E0-3BC2-4E3B-B7B5-F0D9222758FA}" name="FORMA " dataDxfId="18" totalsRowDxfId="1" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{CFACDFFF-5CD2-42E1-948C-EDA79C5E556C}" name="PAGO?" dataDxfId="17" totalsRowDxfId="0" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{24BE90B8-A0C7-4D06-B030-443EAB01750A}" name="PARC" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{7DE4DFAA-2A64-4E80-A68C-6C2FA872E889}" name="DATA" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{00B0D0E7-F603-4A34-BD75-4ABE2649DB9E}" name="NOME " dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{75DE058D-6BE1-4F0C-9F7F-C4F4805B4A2F}" name="VALOR " totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{755F76A5-5399-4689-A616-AE24DE23EEAF}" name="NAYARA " totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{45C3D6E0-3BC2-4E3B-B7B5-F0D9222758FA}" name="FORMA " dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{CFACDFFF-5CD2-42E1-948C-EDA79C5E556C}" name="PAGO?" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{22EB66EF-3C85-44C8-93A0-795C77010390}" name="Tabela2310" displayName="Tabela2310" ref="Q3:W12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{22EB66EF-3C85-44C8-93A0-795C77010390}" name="Tabela2310" displayName="Tabela2310" ref="Q3:W12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="Q3:W12" xr:uid="{22EB66EF-3C85-44C8-93A0-795C77010390}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{70836923-60FC-4D6F-99C5-AE46EA53C116}" name="PARC" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{464EA8FD-2312-4D67-BECD-051208EC7A1A}" name="DATA" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{5DBE8ECE-C8A9-45F4-BD67-FFAE940C2107}" name="NOME " dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{FC1EBF8C-0A01-41F6-8D68-5A55FE7B0F3F}" name="VALOR " dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{C4676335-54EC-4E7C-BDA5-AB202F7495D7}" name="NAYARA " dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{5274F487-D426-4F20-B683-17C929B49BA6}" name="FORMA " dataDxfId="8" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{8C619FC1-D99F-41EE-9A77-E6D7547BB9A6}" name="PAGO?" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{70836923-60FC-4D6F-99C5-AE46EA53C116}" name="PARC" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{464EA8FD-2312-4D67-BECD-051208EC7A1A}" name="DATA" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{5DBE8ECE-C8A9-45F4-BD67-FFAE940C2107}" name="NOME " dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{FC1EBF8C-0A01-41F6-8D68-5A55FE7B0F3F}" name="VALOR " dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{C4676335-54EC-4E7C-BDA5-AB202F7495D7}" name="NAYARA " dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{5274F487-D426-4F20-B683-17C929B49BA6}" name="FORMA " dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{8C619FC1-D99F-41EE-9A77-E6D7547BB9A6}" name="PAGO?" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3900,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A392D32-D411-41D8-BD53-0BBF70658B08}">
   <dimension ref="A2:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,7 +4332,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6">
         <v>45066</v>

--- a/PLANILHA ACERTOS NAYARA.xlsx
+++ b/PLANILHA ACERTOS NAYARA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Desktop\CH NAYARA 3 IRMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F2EFC-6706-4130-B2EE-E1C4B5D59BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E13618F-4BC3-43E0-97E6-22180DC8A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="61">
   <si>
     <t>PARC</t>
   </si>
@@ -3904,7 +3904,7 @@
   <dimension ref="A2:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,7 +4063,9 @@
       <c r="N4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q4" s="18" t="s">
         <v>30</v>
       </c>
@@ -4123,7 +4125,9 @@
       <c r="N5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q5" s="18" t="s">
         <v>31</v>
       </c>
@@ -4185,7 +4189,9 @@
       <c r="N6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q6" s="21" t="s">
         <v>32</v>
       </c>
@@ -4247,7 +4253,9 @@
       <c r="N7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q7" s="22" t="s">
         <v>34</v>
       </c>
@@ -4309,7 +4317,9 @@
       <c r="N8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q8" s="5" t="s">
         <v>52</v>
       </c>
@@ -4371,7 +4381,9 @@
       <c r="N9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="19"/>
       <c r="S9" s="20"/>
@@ -4421,7 +4433,9 @@
       <c r="N10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="19"/>
       <c r="S10" s="20"/>
@@ -4447,7 +4461,9 @@
         <v>193</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="22"/>
       <c r="J11" s="19"/>

--- a/PLANILHA ACERTOS NAYARA.xlsx
+++ b/PLANILHA ACERTOS NAYARA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Desktop\CH NAYARA 3 IRMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E13618F-4BC3-43E0-97E6-22180DC8A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1D7C9-0C46-4B16-B34A-E10B12DF80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F443356-DD24-43D4-B8B8-40355E968F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
   <si>
     <t>PARC</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>1de 5</t>
+  </si>
+  <si>
+    <t>1 de 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREIA </t>
+  </si>
+  <si>
+    <t>3de 5</t>
+  </si>
+  <si>
+    <t>1de11</t>
+  </si>
+  <si>
+    <t>WELLIGTON</t>
+  </si>
+  <si>
+    <t>2de11</t>
+  </si>
+  <si>
+    <t>3 de11</t>
+  </si>
+  <si>
+    <t>4 de11</t>
   </si>
 </sst>
 </file>
@@ -426,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -465,6 +489,9 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -865,6 +892,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -919,6 +947,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -973,6 +1002,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1027,6 +1057,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1081,6 +1112,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3576,13 +3608,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}" name="Tabela29" displayName="Tabela29" ref="I33:O43" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" headerRowCellStyle="Moeda" dataCellStyle="Moeda">
   <autoFilter ref="I33:O42" xr:uid="{0E4FD52D-734D-4CFB-BE1B-FA67692C735E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{24BE90B8-A0C7-4D06-B030-443EAB01750A}" name="PARC" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="2" xr3:uid="{7DE4DFAA-2A64-4E80-A68C-6C2FA872E889}" name="DATA" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{00B0D0E7-F603-4A34-BD75-4ABE2649DB9E}" name="NOME " dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{75DE058D-6BE1-4F0C-9F7F-C4F4805B4A2F}" name="VALOR " totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{755F76A5-5399-4689-A616-AE24DE23EEAF}" name="NAYARA " totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{45C3D6E0-3BC2-4E3B-B7B5-F0D9222758FA}" name="FORMA " dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{CFACDFFF-5CD2-42E1-948C-EDA79C5E556C}" name="PAGO?" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Moeda" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{24BE90B8-A0C7-4D06-B030-443EAB01750A}" name="PARC" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{7DE4DFAA-2A64-4E80-A68C-6C2FA872E889}" name="DATA" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{00B0D0E7-F603-4A34-BD75-4ABE2649DB9E}" name="NOME " dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{75DE058D-6BE1-4F0C-9F7F-C4F4805B4A2F}" name="VALOR " totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{755F76A5-5399-4689-A616-AE24DE23EEAF}" name="NAYARA " totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{45C3D6E0-3BC2-4E3B-B7B5-F0D9222758FA}" name="FORMA " dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{CFACDFFF-5CD2-42E1-948C-EDA79C5E556C}" name="PAGO?" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3903,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A392D32-D411-41D8-BD53-0BBF70658B08}">
   <dimension ref="A2:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,7 +4356,7 @@
         <v>52</v>
       </c>
       <c r="R8" s="6">
-        <v>45066</v>
+        <v>45127</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>49</v>
@@ -4419,7 +4451,7 @@
         <v>51</v>
       </c>
       <c r="J10" s="6">
-        <v>45066</v>
+        <v>45097</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>49</v>
@@ -4662,7 +4694,9 @@
       <c r="F18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="I18" s="18" t="s">
         <v>37</v>
       </c>
@@ -4686,7 +4720,7 @@
         <v>40</v>
       </c>
       <c r="R18" s="19">
-        <v>45179</v>
+        <v>45209</v>
       </c>
       <c r="S18" s="20" t="s">
         <v>8</v>
@@ -4721,7 +4755,9 @@
       <c r="F19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="I19" s="22" t="s">
         <v>38</v>
       </c>
@@ -4745,7 +4781,7 @@
         <v>41</v>
       </c>
       <c r="R19" s="19">
-        <v>45179</v>
+        <v>45209</v>
       </c>
       <c r="S19" s="20" t="s">
         <v>12</v>
@@ -4780,7 +4816,9 @@
       <c r="F20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="22" t="s">
         <v>39</v>
       </c>
@@ -4801,93 +4839,145 @@
       </c>
       <c r="O20" s="20"/>
       <c r="Q20" s="29" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="R20" s="19">
-        <v>45179</v>
+        <v>45209</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="T20" s="20">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="U20" s="20">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="W20" s="28"/>
+        <v>9</v>
+      </c>
+      <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="6">
-        <v>45066</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>49</v>
+      <c r="A21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="19">
+        <v>45153</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="20">
-        <v>256.27</v>
+        <v>750</v>
       </c>
       <c r="E21" s="20">
-        <v>51.25</v>
+        <v>225</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="I21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="6">
-        <v>45066</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="19">
+        <v>45179</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="L21" s="20">
-        <v>256.27</v>
+        <v>250</v>
       </c>
       <c r="M21" s="20">
-        <v>51.25</v>
+        <v>75</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O21" s="20"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
+      <c r="Q21" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="19">
+        <v>45214</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="20">
+        <v>750</v>
+      </c>
+      <c r="U21" s="20">
+        <v>225</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45158</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="20">
+        <v>256.27</v>
+      </c>
+      <c r="E22" s="20">
+        <v>51.25</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="19">
+        <v>45184</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="20">
+        <v>750</v>
+      </c>
+      <c r="M22" s="20">
+        <v>225</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="O22" s="20"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
+      <c r="Q22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="19">
+        <v>45179</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="20">
+        <v>370</v>
+      </c>
+      <c r="U22" s="20">
+        <v>74</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -4898,12 +4988,24 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="I23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="6">
+        <v>45189</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="20">
+        <v>256.27</v>
+      </c>
+      <c r="M23" s="20">
+        <v>51.25</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="O23" s="20"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="19"/>
@@ -4965,11 +5067,11 @@
       <c r="C26" s="20"/>
       <c r="D26" s="23">
         <f>SUBTOTAL(109,D18:D25)</f>
-        <v>1012.27</v>
+        <v>1762.27</v>
       </c>
       <c r="E26" s="23">
         <f>SUBTOTAL(109,E18:E25)</f>
-        <v>222.45</v>
+        <v>447.45</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -4978,11 +5080,11 @@
       <c r="K26" s="20"/>
       <c r="L26" s="23">
         <f>SUBTOTAL(109,L18:L25)</f>
-        <v>1019.27</v>
+        <v>2019.27</v>
       </c>
       <c r="M26" s="23">
         <f>SUBTOTAL(109,M18:M25)</f>
-        <v>223.85</v>
+        <v>523.85</v>
       </c>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -4991,11 +5093,11 @@
       <c r="S26" s="33"/>
       <c r="T26" s="34">
         <f>SUBTOTAL(109,T18:T25)</f>
-        <v>770</v>
+        <v>1770</v>
       </c>
       <c r="U26" s="34">
         <f>SUBTOTAL(109,U18:U25)</f>
-        <v>174</v>
+        <v>474</v>
       </c>
       <c r="V26" s="34"/>
       <c r="W26" s="35"/>
@@ -5181,42 +5283,42 @@
       <c r="V35" s="10"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="19">
         <v>45240</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="7">
-        <v>378</v>
-      </c>
-      <c r="E36" s="7">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>29</v>
+      <c r="C36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="20">
+        <v>250</v>
+      </c>
+      <c r="E36" s="20">
+        <v>75</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="I36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="19">
         <v>45270</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="7">
-        <v>386</v>
-      </c>
-      <c r="M36" s="7">
-        <v>77.2</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>29</v>
+      <c r="K36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="20">
+        <v>250</v>
+      </c>
+      <c r="M36" s="20">
+        <v>75</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="O36" s="7"/>
       <c r="T36" s="11">
@@ -5228,19 +5330,43 @@
       <c r="V36" s="10"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="A37" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="19">
+        <v>45245</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="20">
+        <v>750</v>
+      </c>
+      <c r="E37" s="20">
+        <v>225</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="G37" s="7"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="I37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="19">
+        <v>45275</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="20">
+        <v>750</v>
+      </c>
+      <c r="M37" s="20">
+        <v>225</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="O37" s="7"/>
       <c r="T37" s="11">
         <v>45209</v>
@@ -5251,19 +5377,43 @@
       <c r="V37" s="10"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45240</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="7">
+        <v>378</v>
+      </c>
+      <c r="E38" s="7">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G38" s="7"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="I38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="6">
+        <v>45270</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="7">
+        <v>386</v>
+      </c>
+      <c r="M38" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="T38" s="11">
         <v>45240</v>
@@ -5274,7 +5424,7 @@
       <c r="V38" s="10"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -5348,11 +5498,11 @@
       <c r="C42" s="7"/>
       <c r="D42" s="13">
         <f>SUBTOTAL(109,D34:D41)</f>
-        <v>778</v>
+        <v>1778</v>
       </c>
       <c r="E42" s="13">
         <f>SUBTOTAL(109,E34:E41)</f>
-        <v>175.6</v>
+        <v>475.6</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -5379,19 +5529,19 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7">
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40">
         <f>SUBTOTAL(109,Tabela29[[VALOR ]])</f>
-        <v>586</v>
-      </c>
-      <c r="M43" s="7">
+        <v>1586</v>
+      </c>
+      <c r="M43" s="40">
         <f>SUBTOTAL(109,Tabela29[[NAYARA ]])</f>
-        <v>137.19999999999999</v>
-      </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+        <v>437.2</v>
+      </c>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
       <c r="T43" s="11">
         <v>45392</v>
       </c>
